--- a/data/pca/factorExposure/factorExposure_2011-10-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-10-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01128819080760432</v>
+        <v>0.01298711310562331</v>
       </c>
       <c r="C2">
-        <v>0.0349206311055349</v>
+        <v>-0.004365907533261172</v>
       </c>
       <c r="D2">
-        <v>-0.02007813349243728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03564985835981135</v>
+      </c>
+      <c r="E2">
+        <v>-0.007915783758211729</v>
+      </c>
+      <c r="F2">
+        <v>-0.03953956732707073</v>
+      </c>
+      <c r="G2">
+        <v>0.01619702028792547</v>
+      </c>
+      <c r="H2">
+        <v>0.01548157613379428</v>
+      </c>
+      <c r="I2">
+        <v>0.01012523123992843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.07737194775026912</v>
+        <v>0.09051222905940633</v>
       </c>
       <c r="C4">
-        <v>0.05131056081373665</v>
+        <v>0.04008862763453245</v>
       </c>
       <c r="D4">
-        <v>-0.08444246138752166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.07514399266578876</v>
+      </c>
+      <c r="E4">
+        <v>-0.005994902544964861</v>
+      </c>
+      <c r="F4">
+        <v>-0.0489654320932526</v>
+      </c>
+      <c r="G4">
+        <v>-0.03435224847059971</v>
+      </c>
+      <c r="H4">
+        <v>-0.03451234313342291</v>
+      </c>
+      <c r="I4">
+        <v>-0.07115416823275526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.1142509907140379</v>
+        <v>0.125703647315019</v>
       </c>
       <c r="C6">
-        <v>0.04849781532007109</v>
+        <v>-0.01106413280824783</v>
       </c>
       <c r="D6">
-        <v>-0.006688888589520974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.03254535349116233</v>
+      </c>
+      <c r="E6">
+        <v>0.02361738846802974</v>
+      </c>
+      <c r="F6">
+        <v>-0.04843138538831017</v>
+      </c>
+      <c r="G6">
+        <v>-0.04081360219977426</v>
+      </c>
+      <c r="H6">
+        <v>0.1870304091859934</v>
+      </c>
+      <c r="I6">
+        <v>-0.02419348950875872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.060226702847524</v>
+        <v>0.06593478886301085</v>
       </c>
       <c r="C7">
-        <v>0.04351600248339003</v>
+        <v>0.03330428914116367</v>
       </c>
       <c r="D7">
-        <v>-0.03850083740719526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05658973870039548</v>
+      </c>
+      <c r="E7">
+        <v>-0.01701016207630662</v>
+      </c>
+      <c r="F7">
+        <v>-0.05364629722936858</v>
+      </c>
+      <c r="G7">
+        <v>0.01243655661483318</v>
+      </c>
+      <c r="H7">
+        <v>-0.01366667815447553</v>
+      </c>
+      <c r="I7">
+        <v>-0.03930950391258209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0423333388865618</v>
+        <v>0.04529388818795486</v>
       </c>
       <c r="C8">
-        <v>-0.0103235348044539</v>
+        <v>0.02761582839855195</v>
       </c>
       <c r="D8">
-        <v>-0.06312964627894026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.005899496464133224</v>
+      </c>
+      <c r="E8">
+        <v>-0.01391347349952209</v>
+      </c>
+      <c r="F8">
+        <v>-0.06751914420716772</v>
+      </c>
+      <c r="G8">
+        <v>-0.06476520575695363</v>
+      </c>
+      <c r="H8">
+        <v>0.01025285940889845</v>
+      </c>
+      <c r="I8">
+        <v>-0.1261656462901389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.07205379986374705</v>
+        <v>0.08189519700943317</v>
       </c>
       <c r="C9">
-        <v>0.04261054702964957</v>
+        <v>0.03777133336504603</v>
       </c>
       <c r="D9">
-        <v>-0.07813250344392419</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06399981355577214</v>
+      </c>
+      <c r="E9">
+        <v>-0.01645180598077286</v>
+      </c>
+      <c r="F9">
+        <v>-0.04454222370735847</v>
+      </c>
+      <c r="G9">
+        <v>-0.04850154529267196</v>
+      </c>
+      <c r="H9">
+        <v>-0.03124204940805853</v>
+      </c>
+      <c r="I9">
+        <v>-0.07252538371204062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02556156992234443</v>
+        <v>0.05605403491556227</v>
       </c>
       <c r="C10">
-        <v>0.02059356659140987</v>
+        <v>-0.184314378545763</v>
       </c>
       <c r="D10">
-        <v>0.1667912664883361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.05907806109638857</v>
+      </c>
+      <c r="E10">
+        <v>-0.02551798336762112</v>
+      </c>
+      <c r="F10">
+        <v>-0.05524416975197019</v>
+      </c>
+      <c r="G10">
+        <v>0.04308138524846346</v>
+      </c>
+      <c r="H10">
+        <v>0.03577040543249518</v>
+      </c>
+      <c r="I10">
+        <v>0.04423070839061757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.06778322137343547</v>
+        <v>0.07226146389747305</v>
       </c>
       <c r="C11">
-        <v>0.0384967451137733</v>
+        <v>0.03747818539254472</v>
       </c>
       <c r="D11">
-        <v>-0.05770902843865389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05238456945950291</v>
+      </c>
+      <c r="E11">
+        <v>-0.0007261568005015855</v>
+      </c>
+      <c r="F11">
+        <v>-0.04198281784778482</v>
+      </c>
+      <c r="G11">
+        <v>-0.05224163954496221</v>
+      </c>
+      <c r="H11">
+        <v>-0.05610732987868415</v>
+      </c>
+      <c r="I11">
+        <v>-0.06080821690287001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.06275802737131181</v>
+        <v>0.06919009300262645</v>
       </c>
       <c r="C12">
-        <v>0.04874340293316697</v>
+        <v>0.02359579886513134</v>
       </c>
       <c r="D12">
-        <v>-0.04791185214628881</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05366375200755025</v>
+      </c>
+      <c r="E12">
+        <v>-0.007891756782747677</v>
+      </c>
+      <c r="F12">
+        <v>-0.03005017493689465</v>
+      </c>
+      <c r="G12">
+        <v>-0.02703520384299032</v>
+      </c>
+      <c r="H12">
+        <v>-0.02647436078074757</v>
+      </c>
+      <c r="I12">
+        <v>-0.08866720376386628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06883220468938875</v>
+        <v>0.06838211476832573</v>
       </c>
       <c r="C13">
-        <v>0.04188536587756281</v>
+        <v>0.01946400365266639</v>
       </c>
       <c r="D13">
-        <v>-0.05182260524908466</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04530952285679549</v>
+      </c>
+      <c r="E13">
+        <v>-0.01121381011661384</v>
+      </c>
+      <c r="F13">
+        <v>-0.02240408675493126</v>
+      </c>
+      <c r="G13">
+        <v>-0.03153449339377733</v>
+      </c>
+      <c r="H13">
+        <v>-0.04466662885521528</v>
+      </c>
+      <c r="I13">
+        <v>-0.11724793477242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02802793131169373</v>
+        <v>0.04004480093749329</v>
       </c>
       <c r="C14">
-        <v>0.03410416693523109</v>
+        <v>-0.005975532540314672</v>
       </c>
       <c r="D14">
-        <v>-0.001494503418102832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03738477722390954</v>
+      </c>
+      <c r="E14">
+        <v>-0.01747175257482155</v>
+      </c>
+      <c r="F14">
+        <v>-0.02231661681518773</v>
+      </c>
+      <c r="G14">
+        <v>-0.03000607909629412</v>
+      </c>
+      <c r="H14">
+        <v>-0.06460744655706745</v>
+      </c>
+      <c r="I14">
+        <v>-0.0459527879885824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.04491810034481889</v>
+        <v>0.04102096903569005</v>
       </c>
       <c r="C15">
-        <v>0.009836624251731218</v>
+        <v>0.01208474661075549</v>
       </c>
       <c r="D15">
-        <v>-0.02883163865996503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.009978678800936031</v>
+      </c>
+      <c r="E15">
+        <v>-0.03189914357246508</v>
+      </c>
+      <c r="F15">
+        <v>0.001087389710803687</v>
+      </c>
+      <c r="G15">
+        <v>-0.03083035580200444</v>
+      </c>
+      <c r="H15">
+        <v>-0.01901766554572443</v>
+      </c>
+      <c r="I15">
+        <v>-0.03082227644455659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05787363165961475</v>
+        <v>0.07013539288686413</v>
       </c>
       <c r="C16">
-        <v>0.03908909675615771</v>
+        <v>0.03605255263210286</v>
       </c>
       <c r="D16">
-        <v>-0.05805691454140997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05926631386810743</v>
+      </c>
+      <c r="E16">
+        <v>-0.001666528446387983</v>
+      </c>
+      <c r="F16">
+        <v>-0.0356289352971553</v>
+      </c>
+      <c r="G16">
+        <v>-0.0280394992804335</v>
+      </c>
+      <c r="H16">
+        <v>-0.04033833003918657</v>
+      </c>
+      <c r="I16">
+        <v>-0.05457249167463592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.06286843050555252</v>
+        <v>0.0630007377247606</v>
       </c>
       <c r="C20">
-        <v>0.02142210499269044</v>
+        <v>0.03079963470081667</v>
       </c>
       <c r="D20">
-        <v>-0.05366127236524279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02982460777818362</v>
+      </c>
+      <c r="E20">
+        <v>-0.001706796311367548</v>
+      </c>
+      <c r="F20">
+        <v>-0.02975143661944032</v>
+      </c>
+      <c r="G20">
+        <v>-0.02615799664342224</v>
+      </c>
+      <c r="H20">
+        <v>-0.04308886205968548</v>
+      </c>
+      <c r="I20">
+        <v>-0.08629048368940979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03138905278033029</v>
+        <v>0.02575477080666508</v>
       </c>
       <c r="C21">
-        <v>0.01213811285432046</v>
+        <v>0.01813966767316911</v>
       </c>
       <c r="D21">
-        <v>-0.01511849555341981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01477169028684429</v>
+      </c>
+      <c r="E21">
+        <v>-0.03529943836615381</v>
+      </c>
+      <c r="F21">
+        <v>0.008851314451245753</v>
+      </c>
+      <c r="G21">
+        <v>-0.01055671848062654</v>
+      </c>
+      <c r="H21">
+        <v>0.05526447045629319</v>
+      </c>
+      <c r="I21">
+        <v>-0.02837048149135547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.08138216689882322</v>
+        <v>0.07479097293595159</v>
       </c>
       <c r="C22">
-        <v>0.08287928840598077</v>
+        <v>0.0457652359817011</v>
       </c>
       <c r="D22">
-        <v>-0.1453317599057984</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1131729819886468</v>
+      </c>
+      <c r="E22">
+        <v>-0.603187766153624</v>
+      </c>
+      <c r="F22">
+        <v>0.01403080027750619</v>
+      </c>
+      <c r="G22">
+        <v>0.2088258938361739</v>
+      </c>
+      <c r="H22">
+        <v>0.1197567059327198</v>
+      </c>
+      <c r="I22">
+        <v>0.1822368318994331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.08203431123732757</v>
+        <v>0.07560488235690191</v>
       </c>
       <c r="C23">
-        <v>0.08382292291845662</v>
+        <v>0.04581326806208294</v>
       </c>
       <c r="D23">
-        <v>-0.1454029886055952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1144709693593106</v>
+      </c>
+      <c r="E23">
+        <v>-0.6056189123995247</v>
+      </c>
+      <c r="F23">
+        <v>0.01257073354578403</v>
+      </c>
+      <c r="G23">
+        <v>0.2027255226165765</v>
+      </c>
+      <c r="H23">
+        <v>0.1195289172734564</v>
+      </c>
+      <c r="I23">
+        <v>0.1845077499841337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.07501386965827045</v>
+        <v>0.07977573795600301</v>
       </c>
       <c r="C24">
-        <v>0.04607046257616289</v>
+        <v>0.03314054782809159</v>
       </c>
       <c r="D24">
-        <v>-0.06111227558978723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05781196296766309</v>
+      </c>
+      <c r="E24">
+        <v>-0.009610242601205325</v>
+      </c>
+      <c r="F24">
+        <v>-0.04305255736345045</v>
+      </c>
+      <c r="G24">
+        <v>-0.04502904830973032</v>
+      </c>
+      <c r="H24">
+        <v>-0.02682518437464393</v>
+      </c>
+      <c r="I24">
+        <v>-0.0651844319635141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.07228656906605328</v>
+        <v>0.07730034786483003</v>
       </c>
       <c r="C25">
-        <v>0.0526508498173209</v>
+        <v>0.02343988951322976</v>
       </c>
       <c r="D25">
-        <v>-0.05902565395204222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05948743045473181</v>
+      </c>
+      <c r="E25">
+        <v>-0.01590662109717508</v>
+      </c>
+      <c r="F25">
+        <v>-0.03669066964369535</v>
+      </c>
+      <c r="G25">
+        <v>-0.05137458901773279</v>
+      </c>
+      <c r="H25">
+        <v>-0.0334068776212331</v>
+      </c>
+      <c r="I25">
+        <v>-0.0762627610682276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.04484430058186398</v>
+        <v>0.04646975927887819</v>
       </c>
       <c r="C26">
-        <v>0.01383490057218546</v>
+        <v>0.01297514188132934</v>
       </c>
       <c r="D26">
-        <v>-0.01615700293823022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01563135214915835</v>
+      </c>
+      <c r="E26">
+        <v>-0.04238421666496198</v>
+      </c>
+      <c r="F26">
+        <v>-0.02612879366223454</v>
+      </c>
+      <c r="G26">
+        <v>-0.02867008174306692</v>
+      </c>
+      <c r="H26">
+        <v>-0.03442889022088865</v>
+      </c>
+      <c r="I26">
+        <v>-0.004174530496713567</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05164070571164422</v>
+        <v>0.07990024515509747</v>
       </c>
       <c r="C28">
-        <v>0.07727869429191812</v>
+        <v>-0.3047710158669619</v>
       </c>
       <c r="D28">
-        <v>0.3034332165992237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.08173400374126015</v>
+      </c>
+      <c r="E28">
+        <v>-0.03073266092530058</v>
+      </c>
+      <c r="F28">
+        <v>-0.0474830958460209</v>
+      </c>
+      <c r="G28">
+        <v>-0.022398695289265</v>
+      </c>
+      <c r="H28">
+        <v>0.07644779753723084</v>
+      </c>
+      <c r="I28">
+        <v>0.009430272788660442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.04532514260368879</v>
+        <v>0.05064436507618035</v>
       </c>
       <c r="C29">
-        <v>0.04836622217881296</v>
+        <v>-0.006694585014256914</v>
       </c>
       <c r="D29">
-        <v>-0.007426591919506195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04398370303943647</v>
+      </c>
+      <c r="E29">
+        <v>-0.04249534083118302</v>
+      </c>
+      <c r="F29">
+        <v>-0.02888170822211957</v>
+      </c>
+      <c r="G29">
+        <v>-0.02013530054572169</v>
+      </c>
+      <c r="H29">
+        <v>-0.08754465766660441</v>
+      </c>
+      <c r="I29">
+        <v>-0.03979694210169522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1375360443206664</v>
+        <v>0.1295779523035034</v>
       </c>
       <c r="C30">
-        <v>0.08045723256221213</v>
+        <v>0.03173171327692267</v>
       </c>
       <c r="D30">
-        <v>-0.09931902726740507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08165650112078314</v>
+      </c>
+      <c r="E30">
+        <v>-0.0653504219076433</v>
+      </c>
+      <c r="F30">
+        <v>-0.0491790406191225</v>
+      </c>
+      <c r="G30">
+        <v>-0.08861733342118149</v>
+      </c>
+      <c r="H30">
+        <v>0.0648104529722562</v>
+      </c>
+      <c r="I30">
+        <v>-0.2456353492566718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04831848533408065</v>
+        <v>0.04718946048162442</v>
       </c>
       <c r="C31">
-        <v>0.02608840765932761</v>
+        <v>0.02408429042559321</v>
       </c>
       <c r="D31">
-        <v>-0.02232937750607228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03228540270139653</v>
+      </c>
+      <c r="E31">
+        <v>-0.01811874815187116</v>
+      </c>
+      <c r="F31">
+        <v>-0.01028308464404783</v>
+      </c>
+      <c r="G31">
+        <v>-0.002667564395259129</v>
+      </c>
+      <c r="H31">
+        <v>-0.06819824540995022</v>
+      </c>
+      <c r="I31">
+        <v>-0.02922523545341331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.03563731531798033</v>
+        <v>0.04087759170044911</v>
       </c>
       <c r="C32">
-        <v>0.01101749590618367</v>
+        <v>-0.004079156351593979</v>
       </c>
       <c r="D32">
-        <v>-0.03314674937219253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01358362486431701</v>
+      </c>
+      <c r="E32">
+        <v>-0.0449997623699477</v>
+      </c>
+      <c r="F32">
+        <v>0.008143045247144008</v>
+      </c>
+      <c r="G32">
+        <v>-0.03125920879591806</v>
+      </c>
+      <c r="H32">
+        <v>0.0144446523966406</v>
+      </c>
+      <c r="I32">
+        <v>-0.006305212499258962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.08985210800843471</v>
+        <v>0.09400063569901208</v>
       </c>
       <c r="C33">
-        <v>0.04112447165432902</v>
+        <v>0.03313313572149275</v>
       </c>
       <c r="D33">
-        <v>-0.04888039253641432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04769918054041727</v>
+      </c>
+      <c r="E33">
+        <v>-0.01438383301882289</v>
+      </c>
+      <c r="F33">
+        <v>-0.002104694448674256</v>
+      </c>
+      <c r="G33">
+        <v>-0.008266261098215762</v>
+      </c>
+      <c r="H33">
+        <v>-0.06155436877497279</v>
+      </c>
+      <c r="I33">
+        <v>-0.07726873278890807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05865208714127303</v>
+        <v>0.06740496175282654</v>
       </c>
       <c r="C34">
-        <v>0.02317830338645309</v>
+        <v>0.03235443492601164</v>
       </c>
       <c r="D34">
-        <v>-0.05615016732730412</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03801123313375911</v>
+      </c>
+      <c r="E34">
+        <v>-0.01112216459734782</v>
+      </c>
+      <c r="F34">
+        <v>-0.02580967065033548</v>
+      </c>
+      <c r="G34">
+        <v>-0.0310972505839635</v>
+      </c>
+      <c r="H34">
+        <v>-0.04872764655589631</v>
+      </c>
+      <c r="I34">
+        <v>-0.0544168472346348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.03594804804304805</v>
+        <v>0.03654291737229363</v>
       </c>
       <c r="C35">
-        <v>0.0178526954629906</v>
+        <v>0.01080718287571397</v>
       </c>
       <c r="D35">
-        <v>-0.02112678103984996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02100457872219411</v>
+      </c>
+      <c r="E35">
+        <v>-0.0162020786663401</v>
+      </c>
+      <c r="F35">
+        <v>0.01219203284933321</v>
+      </c>
+      <c r="G35">
+        <v>-0.005074239034510345</v>
+      </c>
+      <c r="H35">
+        <v>-0.03401476139924264</v>
+      </c>
+      <c r="I35">
+        <v>-0.04311641974565067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.02820202705407717</v>
+        <v>0.0294822735209806</v>
       </c>
       <c r="C36">
-        <v>0.0190515928458202</v>
+        <v>0.009375071455882981</v>
       </c>
       <c r="D36">
-        <v>-0.02290721232694127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02253369282017778</v>
+      </c>
+      <c r="E36">
+        <v>-0.031989689394061</v>
+      </c>
+      <c r="F36">
+        <v>-0.03416270012617816</v>
+      </c>
+      <c r="G36">
+        <v>-0.01997342643290583</v>
+      </c>
+      <c r="H36">
+        <v>-0.03863043347795063</v>
+      </c>
+      <c r="I36">
+        <v>-0.06304714181851817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.06297918055785746</v>
+        <v>0.05407133995874856</v>
       </c>
       <c r="C38">
-        <v>0.01084870656041765</v>
+        <v>0.02665620873557843</v>
       </c>
       <c r="D38">
-        <v>-0.005814077153500168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01053165924505983</v>
+      </c>
+      <c r="E38">
+        <v>-0.05252027955570974</v>
+      </c>
+      <c r="F38">
+        <v>0.004047033162561235</v>
+      </c>
+      <c r="G38">
+        <v>0.007351317594227603</v>
+      </c>
+      <c r="H38">
+        <v>-0.02843265574179548</v>
+      </c>
+      <c r="I38">
+        <v>-0.03506490271495037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.09640104413681617</v>
+        <v>0.1028960053183071</v>
       </c>
       <c r="C39">
-        <v>0.06345170035317999</v>
+        <v>0.0229742310764433</v>
       </c>
       <c r="D39">
-        <v>-0.04299873540017519</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06948800942030289</v>
+      </c>
+      <c r="E39">
+        <v>-0.006250718790605358</v>
+      </c>
+      <c r="F39">
+        <v>-0.02127257882067635</v>
+      </c>
+      <c r="G39">
+        <v>-0.04904748831192029</v>
+      </c>
+      <c r="H39">
+        <v>-0.01231659622727829</v>
+      </c>
+      <c r="I39">
+        <v>-0.05268020427822168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07762518207831826</v>
+        <v>0.05632462565009594</v>
       </c>
       <c r="C40">
-        <v>0.02202187478312239</v>
+        <v>0.03412585458108168</v>
       </c>
       <c r="D40">
-        <v>-0.01879582947355651</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01054573938877986</v>
+      </c>
+      <c r="E40">
+        <v>-0.0396654861880127</v>
+      </c>
+      <c r="F40">
+        <v>0.02413987543725869</v>
+      </c>
+      <c r="G40">
+        <v>-0.06214840063695081</v>
+      </c>
+      <c r="H40">
+        <v>0.05014635758403646</v>
+      </c>
+      <c r="I40">
+        <v>-0.2433219957667734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.04809787726826242</v>
+        <v>0.04698148794867232</v>
       </c>
       <c r="C41">
-        <v>0.01487216230393782</v>
+        <v>0.02803773410061437</v>
       </c>
       <c r="D41">
-        <v>-0.03532716446310448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.02139830770237432</v>
+      </c>
+      <c r="E41">
+        <v>-0.0009661108255313194</v>
+      </c>
+      <c r="F41">
+        <v>0.009373845101424224</v>
+      </c>
+      <c r="G41">
+        <v>-0.01271532973513163</v>
+      </c>
+      <c r="H41">
+        <v>-0.0339513774837193</v>
+      </c>
+      <c r="I41">
+        <v>-0.02491356038259584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.05576556928809248</v>
+        <v>0.06061871776474989</v>
       </c>
       <c r="C43">
-        <v>0.0331061218084545</v>
+        <v>0.01657968835093702</v>
       </c>
       <c r="D43">
-        <v>-0.01303733015307545</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03696998625294746</v>
+      </c>
+      <c r="E43">
+        <v>-0.01625155305142328</v>
+      </c>
+      <c r="F43">
+        <v>-0.01935771930649876</v>
+      </c>
+      <c r="G43">
+        <v>0.006175076811807565</v>
+      </c>
+      <c r="H43">
+        <v>-0.05799893101196058</v>
+      </c>
+      <c r="I43">
+        <v>-0.002883160868145004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0939508640339911</v>
+        <v>0.09308330411680255</v>
       </c>
       <c r="C44">
-        <v>0.02232734265021694</v>
+        <v>0.04049598794364352</v>
       </c>
       <c r="D44">
-        <v>-0.05502312768167274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03502902880139623</v>
+      </c>
+      <c r="E44">
+        <v>-0.07089006538331322</v>
+      </c>
+      <c r="F44">
+        <v>-0.09022181402058653</v>
+      </c>
+      <c r="G44">
+        <v>-0.07940546865247267</v>
+      </c>
+      <c r="H44">
+        <v>-0.05106619902422489</v>
+      </c>
+      <c r="I44">
+        <v>-0.1103058281359314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02517175582270294</v>
+        <v>0.03861283848165782</v>
       </c>
       <c r="C46">
-        <v>0.0234212776066558</v>
+        <v>0.01892865060121081</v>
       </c>
       <c r="D46">
-        <v>-0.03477038795965851</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.04215713978158962</v>
+      </c>
+      <c r="E46">
+        <v>-0.02685874837813609</v>
+      </c>
+      <c r="F46">
+        <v>-0.02226299318312115</v>
+      </c>
+      <c r="G46">
+        <v>-0.002785971260271833</v>
+      </c>
+      <c r="H46">
+        <v>-0.03231115080601153</v>
+      </c>
+      <c r="I46">
+        <v>-0.02094408433764002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.03477040231789764</v>
+        <v>0.04357158071816319</v>
       </c>
       <c r="C47">
-        <v>0.02502091784184852</v>
+        <v>-0.001666358119540473</v>
       </c>
       <c r="D47">
-        <v>0.0003515264128985128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02509985667176791</v>
+      </c>
+      <c r="E47">
+        <v>-0.03888036019786591</v>
+      </c>
+      <c r="F47">
+        <v>0.002466167210341562</v>
+      </c>
+      <c r="G47">
+        <v>0.02367290049914066</v>
+      </c>
+      <c r="H47">
+        <v>-0.03141112279653302</v>
+      </c>
+      <c r="I47">
+        <v>-0.05524773240065999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.04145450060546278</v>
+        <v>0.04197491330773327</v>
       </c>
       <c r="C48">
-        <v>0.02460794890256467</v>
+        <v>0.007885941295210076</v>
       </c>
       <c r="D48">
-        <v>-0.03144058593982135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02316749289061247</v>
+      </c>
+      <c r="E48">
+        <v>-0.03989770344369243</v>
+      </c>
+      <c r="F48">
+        <v>-0.008452682865927992</v>
+      </c>
+      <c r="G48">
+        <v>-0.016497326182344</v>
+      </c>
+      <c r="H48">
+        <v>-0.01588615075865124</v>
+      </c>
+      <c r="I48">
+        <v>-0.04400120450181654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>-0.1671301817957393</v>
+        <v>0.2014917045210033</v>
       </c>
       <c r="C49">
-        <v>0.03680506367388822</v>
+        <v>0.007751900378732306</v>
       </c>
       <c r="D49">
-        <v>-0.01155902680919528</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03515512324834</v>
+      </c>
+      <c r="E49">
+        <v>0.1838616785432391</v>
+      </c>
+      <c r="F49">
+        <v>-0.01075016977101106</v>
+      </c>
+      <c r="G49">
+        <v>0.16801250519673</v>
+      </c>
+      <c r="H49">
+        <v>0.2149146768239774</v>
+      </c>
+      <c r="I49">
+        <v>0.06503612825120213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04727288772789178</v>
+        <v>0.04973247514439091</v>
       </c>
       <c r="C50">
-        <v>0.03703668791192802</v>
+        <v>0.01859271805890252</v>
       </c>
       <c r="D50">
-        <v>-0.03715083425444381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.04426315623671292</v>
+      </c>
+      <c r="E50">
+        <v>-0.02272265916933332</v>
+      </c>
+      <c r="F50">
+        <v>-0.007208964492067057</v>
+      </c>
+      <c r="G50">
+        <v>-0.01484373454360388</v>
+      </c>
+      <c r="H50">
+        <v>-0.06629557387261907</v>
+      </c>
+      <c r="I50">
+        <v>-0.01974904126177879</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.02509040353065948</v>
+        <v>0.03400673751886804</v>
       </c>
       <c r="C51">
-        <v>0.002300131098415762</v>
+        <v>-0.00435282066620328</v>
       </c>
       <c r="D51">
-        <v>0.006166581824640659</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002966183328347461</v>
+      </c>
+      <c r="E51">
+        <v>-0.005344516481188702</v>
+      </c>
+      <c r="F51">
+        <v>-0.01167080249077478</v>
+      </c>
+      <c r="G51">
+        <v>0.02735883313971145</v>
+      </c>
+      <c r="H51">
+        <v>0.01931968468605213</v>
+      </c>
+      <c r="I51">
+        <v>0.0157338870581374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1571861013141265</v>
+        <v>0.1616441324607238</v>
       </c>
       <c r="C53">
-        <v>0.07540514825060923</v>
+        <v>-0.0108863458108288</v>
       </c>
       <c r="D53">
-        <v>0.01290762103275698</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.05152562811377451</v>
+      </c>
+      <c r="E53">
+        <v>0.03489749879509026</v>
+      </c>
+      <c r="F53">
+        <v>0.002966413593623704</v>
+      </c>
+      <c r="G53">
+        <v>-0.005813115095482524</v>
+      </c>
+      <c r="H53">
+        <v>-0.2033013587163968</v>
+      </c>
+      <c r="I53">
+        <v>0.1118324848707531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.0587869674149136</v>
+        <v>0.06007473299389757</v>
       </c>
       <c r="C54">
-        <v>0.02731789616360819</v>
+        <v>-0.0001206749241504286</v>
       </c>
       <c r="D54">
-        <v>-0.02395875700741359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02371283461478488</v>
+      </c>
+      <c r="E54">
+        <v>-0.05864147124517743</v>
+      </c>
+      <c r="F54">
+        <v>-0.0258388542913879</v>
+      </c>
+      <c r="G54">
+        <v>-0.06122051948843661</v>
+      </c>
+      <c r="H54">
+        <v>-0.03438126375441161</v>
+      </c>
+      <c r="I54">
+        <v>-0.1040327233397467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09912212914421641</v>
+        <v>0.1007002130110028</v>
       </c>
       <c r="C55">
-        <v>0.05141890704932783</v>
+        <v>0.007302977828764884</v>
       </c>
       <c r="D55">
-        <v>-0.01405607627716936</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0433457247696651</v>
+      </c>
+      <c r="E55">
+        <v>0.008501476706392095</v>
+      </c>
+      <c r="F55">
+        <v>-0.01970194056589552</v>
+      </c>
+      <c r="G55">
+        <v>-0.02917406494906263</v>
+      </c>
+      <c r="H55">
+        <v>-0.1573498314331936</v>
+      </c>
+      <c r="I55">
+        <v>0.036081097425655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1458176067330011</v>
+        <v>0.1518843104673047</v>
       </c>
       <c r="C56">
-        <v>0.08912227590589741</v>
+        <v>0.001998479471447315</v>
       </c>
       <c r="D56">
-        <v>0.004244262210455186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.07297509962592803</v>
+      </c>
+      <c r="E56">
+        <v>0.02138922064708792</v>
+      </c>
+      <c r="F56">
+        <v>-0.01728277098182527</v>
+      </c>
+      <c r="G56">
+        <v>-0.02854653848103599</v>
+      </c>
+      <c r="H56">
+        <v>-0.1940438406385578</v>
+      </c>
+      <c r="I56">
+        <v>0.1215552616549029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1166950669738678</v>
+        <v>0.08883015961244659</v>
       </c>
       <c r="C58">
-        <v>-0.03931105114915732</v>
+        <v>0.06714660984255909</v>
       </c>
       <c r="D58">
-        <v>-0.06785174446666323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.04423152076556171</v>
+      </c>
+      <c r="E58">
+        <v>-0.111706926554132</v>
+      </c>
+      <c r="F58">
+        <v>-0.03734268860449275</v>
+      </c>
+      <c r="G58">
+        <v>0.08095043295524289</v>
+      </c>
+      <c r="H58">
+        <v>0.135562328885327</v>
+      </c>
+      <c r="I58">
+        <v>-0.5948651791678833</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1284705209561628</v>
+        <v>0.1527141131460794</v>
       </c>
       <c r="C59">
-        <v>0.07885184000957098</v>
+        <v>-0.3436286989464404</v>
       </c>
       <c r="D59">
-        <v>0.425091125764517</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.1226533003024809</v>
+      </c>
+      <c r="E59">
+        <v>-0.02634791780824736</v>
+      </c>
+      <c r="F59">
+        <v>-0.005264706219397991</v>
+      </c>
+      <c r="G59">
+        <v>-0.004037315191155801</v>
+      </c>
+      <c r="H59">
+        <v>-0.02079938701153408</v>
+      </c>
+      <c r="I59">
+        <v>0.04444037740850978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2118056443877751</v>
+        <v>0.2396422469053021</v>
       </c>
       <c r="C60">
-        <v>0.0851836536093748</v>
+        <v>0.0004310838642518051</v>
       </c>
       <c r="D60">
-        <v>0.004988520164413446</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.06696844195169294</v>
+      </c>
+      <c r="E60">
+        <v>0.1313524521859686</v>
+      </c>
+      <c r="F60">
+        <v>-0.04155437012483285</v>
+      </c>
+      <c r="G60">
+        <v>0.03497214019892447</v>
+      </c>
+      <c r="H60">
+        <v>0.1567681567358466</v>
+      </c>
+      <c r="I60">
+        <v>0.1229301654738797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.07665401515206523</v>
+        <v>0.08414392912483784</v>
       </c>
       <c r="C61">
-        <v>0.04919706460422268</v>
+        <v>0.01767167001920082</v>
       </c>
       <c r="D61">
-        <v>-0.03232747784199091</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05472900809497272</v>
+      </c>
+      <c r="E61">
+        <v>-0.005364294565814547</v>
+      </c>
+      <c r="F61">
+        <v>-0.02510058864216576</v>
+      </c>
+      <c r="G61">
+        <v>-0.04840749509702407</v>
+      </c>
+      <c r="H61">
+        <v>-0.06682594846919132</v>
+      </c>
+      <c r="I61">
+        <v>-0.03022637536814267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>-0.1351665624674406</v>
+        <v>0.141023412570143</v>
       </c>
       <c r="C62">
-        <v>0.05510627685726309</v>
+        <v>0.01974618956547984</v>
       </c>
       <c r="D62">
-        <v>0.001475185536307919</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04676567619663555</v>
+      </c>
+      <c r="E62">
+        <v>0.04132180873068314</v>
+      </c>
+      <c r="F62">
+        <v>0.0299145557742341</v>
+      </c>
+      <c r="G62">
+        <v>-0.05090422097325524</v>
+      </c>
+      <c r="H62">
+        <v>-0.1818884268202338</v>
+      </c>
+      <c r="I62">
+        <v>0.1378748099462998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.05216015302534399</v>
+        <v>0.04959137849806493</v>
       </c>
       <c r="C63">
-        <v>0.02774910707752409</v>
+        <v>0.01015380638543398</v>
       </c>
       <c r="D63">
-        <v>-0.02994229093415413</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02843775412929804</v>
+      </c>
+      <c r="E63">
+        <v>-0.03427578442206616</v>
+      </c>
+      <c r="F63">
+        <v>-0.005982264022347306</v>
+      </c>
+      <c r="G63">
+        <v>-0.04972172053234924</v>
+      </c>
+      <c r="H63">
+        <v>-0.02557120050631829</v>
+      </c>
+      <c r="I63">
+        <v>-0.02165626507271856</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.1085213680698493</v>
+        <v>0.1128970370177808</v>
       </c>
       <c r="C64">
-        <v>0.03310992812504316</v>
+        <v>0.008946194937436701</v>
       </c>
       <c r="D64">
-        <v>-0.01689111338658842</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02978544714363174</v>
+      </c>
+      <c r="E64">
+        <v>-0.03332233868562524</v>
+      </c>
+      <c r="F64">
+        <v>-0.0514809792969612</v>
+      </c>
+      <c r="G64">
+        <v>-0.06024704571743636</v>
+      </c>
+      <c r="H64">
+        <v>-0.008793499238788754</v>
+      </c>
+      <c r="I64">
+        <v>-0.03374857047517656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.1257516715479655</v>
+        <v>0.1324043680730075</v>
       </c>
       <c r="C65">
-        <v>0.05398518661923472</v>
+        <v>-0.01426537984726993</v>
       </c>
       <c r="D65">
-        <v>-0.01745217586246303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.041424558081524</v>
+      </c>
+      <c r="E65">
+        <v>0.003963764297567932</v>
+      </c>
+      <c r="F65">
+        <v>-0.03064468038293037</v>
+      </c>
+      <c r="G65">
+        <v>-0.07650946510339783</v>
+      </c>
+      <c r="H65">
+        <v>0.2080952196124999</v>
+      </c>
+      <c r="I65">
+        <v>-0.05628596412122026</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.1527876639265395</v>
+        <v>0.149481100609504</v>
       </c>
       <c r="C66">
-        <v>0.08176003179231302</v>
+        <v>0.05972449314860547</v>
       </c>
       <c r="D66">
-        <v>-0.08107399754050069</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.096592873813381</v>
+      </c>
+      <c r="E66">
+        <v>0.0277473731179727</v>
+      </c>
+      <c r="F66">
+        <v>-0.01101867361816006</v>
+      </c>
+      <c r="G66">
+        <v>-0.09367810500093063</v>
+      </c>
+      <c r="H66">
+        <v>-0.07135682451573312</v>
+      </c>
+      <c r="I66">
+        <v>-0.08578783905122382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.09019278753488535</v>
+        <v>0.09230823700575218</v>
       </c>
       <c r="C67">
-        <v>0.01568200218362334</v>
+        <v>0.03189001541007511</v>
       </c>
       <c r="D67">
-        <v>-0.0121083422373874</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02088727125042998</v>
+      </c>
+      <c r="E67">
+        <v>-0.02119715337038712</v>
+      </c>
+      <c r="F67">
+        <v>-0.006501876343640903</v>
+      </c>
+      <c r="G67">
+        <v>0.02706171472638048</v>
+      </c>
+      <c r="H67">
+        <v>-0.02113342130287375</v>
+      </c>
+      <c r="I67">
+        <v>0.0007052171676874684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.05004672827819066</v>
+        <v>0.06746158158563631</v>
       </c>
       <c r="C68">
-        <v>0.042621842480245</v>
+        <v>-0.2641123927672314</v>
       </c>
       <c r="D68">
-        <v>0.2528297430730005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.09256630031696292</v>
+      </c>
+      <c r="E68">
+        <v>-0.04463452698374352</v>
+      </c>
+      <c r="F68">
+        <v>-0.01516591303825414</v>
+      </c>
+      <c r="G68">
+        <v>-0.004746404923066268</v>
+      </c>
+      <c r="H68">
+        <v>-0.0203662577025342</v>
+      </c>
+      <c r="I68">
+        <v>-0.02001580359822109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05975152028186067</v>
+        <v>0.05371964547286979</v>
       </c>
       <c r="C69">
-        <v>0.02611034870091643</v>
+        <v>0.01461325865499052</v>
       </c>
       <c r="D69">
-        <v>-0.01791450706677517</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02033438852882213</v>
+      </c>
+      <c r="E69">
+        <v>-0.02204158152381152</v>
+      </c>
+      <c r="F69">
+        <v>0.01564185620985676</v>
+      </c>
+      <c r="G69">
+        <v>-0.006665433858998743</v>
+      </c>
+      <c r="H69">
+        <v>-0.04098596973546542</v>
+      </c>
+      <c r="I69">
+        <v>-0.01651820693897452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>-0.01124387062285285</v>
+        <v>0.03281081147474554</v>
       </c>
       <c r="C70">
-        <v>0.0003151365316151693</v>
+        <v>-0.004975651017360249</v>
       </c>
       <c r="D70">
-        <v>0.01700758207274122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.003560334208925416</v>
+      </c>
+      <c r="E70">
+        <v>0.02128410635155183</v>
+      </c>
+      <c r="F70">
+        <v>0.001293835342088999</v>
+      </c>
+      <c r="G70">
+        <v>0.01105857815026912</v>
+      </c>
+      <c r="H70">
+        <v>0.0295180955980952</v>
+      </c>
+      <c r="I70">
+        <v>-0.0216201308760733</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.050069631000765</v>
+        <v>0.07540704352323116</v>
       </c>
       <c r="C71">
-        <v>0.03842159425777793</v>
+        <v>-0.2851943534100266</v>
       </c>
       <c r="D71">
-        <v>0.2846999957100322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.1020391555637441</v>
+      </c>
+      <c r="E71">
+        <v>-0.03738194313041621</v>
+      </c>
+      <c r="F71">
+        <v>-0.04289866979204655</v>
+      </c>
+      <c r="G71">
+        <v>-0.00387648193749889</v>
+      </c>
+      <c r="H71">
+        <v>-0.02313072232103825</v>
+      </c>
+      <c r="I71">
+        <v>-0.01942527751636232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1427590604895891</v>
+        <v>0.1399005659792656</v>
       </c>
       <c r="C72">
-        <v>0.04735082501948491</v>
+        <v>-0.0126372303434756</v>
       </c>
       <c r="D72">
-        <v>0.0269261986304525</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01148380676970756</v>
+      </c>
+      <c r="E72">
+        <v>0.0323581505774373</v>
+      </c>
+      <c r="F72">
+        <v>0.1622177885227569</v>
+      </c>
+      <c r="G72">
+        <v>-0.1080919702005813</v>
+      </c>
+      <c r="H72">
+        <v>-0.001342533859849509</v>
+      </c>
+      <c r="I72">
+        <v>0.03435562462999753</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2699873872182529</v>
+        <v>0.2721209522801303</v>
       </c>
       <c r="C73">
-        <v>0.06004324220772408</v>
+        <v>0.0730303732932135</v>
       </c>
       <c r="D73">
-        <v>-0.04217611897004889</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.04481512226182574</v>
+      </c>
+      <c r="E73">
+        <v>0.2881199765844448</v>
+      </c>
+      <c r="F73">
+        <v>-0.04736821350796767</v>
+      </c>
+      <c r="G73">
+        <v>0.2744647749511848</v>
+      </c>
+      <c r="H73">
+        <v>0.3149565558292855</v>
+      </c>
+      <c r="I73">
+        <v>0.03709925769229353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.08135956152717451</v>
+        <v>0.09079493260094204</v>
       </c>
       <c r="C74">
-        <v>0.07452089697418693</v>
+        <v>0.003004532423182297</v>
       </c>
       <c r="D74">
-        <v>-0.005814281188249244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07041276647575685</v>
+      </c>
+      <c r="E74">
+        <v>0.01392818079697489</v>
+      </c>
+      <c r="F74">
+        <v>-0.001673832038148031</v>
+      </c>
+      <c r="G74">
+        <v>0.01871190598520533</v>
+      </c>
+      <c r="H74">
+        <v>-0.1329736827628235</v>
+      </c>
+      <c r="I74">
+        <v>0.01683882683977387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.1105896158901651</v>
+        <v>0.1047299221344336</v>
       </c>
       <c r="C75">
-        <v>0.04836432960169443</v>
+        <v>0.01606459847174619</v>
       </c>
       <c r="D75">
-        <v>-0.007824883055341791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03006052620012691</v>
+      </c>
+      <c r="E75">
+        <v>-0.0004299800384550594</v>
+      </c>
+      <c r="F75">
+        <v>0.005898985090355038</v>
+      </c>
+      <c r="G75">
+        <v>0.001899995121644135</v>
+      </c>
+      <c r="H75">
+        <v>-0.1108024076983988</v>
+      </c>
+      <c r="I75">
+        <v>0.0535283699509823</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1282823241664573</v>
+        <v>0.1352882101932979</v>
       </c>
       <c r="C76">
-        <v>0.07424216355809354</v>
+        <v>0.01942643158803846</v>
       </c>
       <c r="D76">
-        <v>-0.02625259677417018</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07580438814224792</v>
+      </c>
+      <c r="E76">
+        <v>0.003387485415101</v>
+      </c>
+      <c r="F76">
+        <v>-0.03590773254751283</v>
+      </c>
+      <c r="G76">
+        <v>-0.03719319198924444</v>
+      </c>
+      <c r="H76">
+        <v>-0.2462742465449169</v>
+      </c>
+      <c r="I76">
+        <v>0.105457036495622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1316423612849589</v>
+        <v>0.1029241917732488</v>
       </c>
       <c r="C77">
-        <v>-0.01842259986859629</v>
+        <v>0.05900169920627109</v>
       </c>
       <c r="D77">
-        <v>-0.06267706912822628</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.03160119799994504</v>
+      </c>
+      <c r="E77">
+        <v>-0.07079586845263963</v>
+      </c>
+      <c r="F77">
+        <v>-0.06305582909333232</v>
+      </c>
+      <c r="G77">
+        <v>-0.7466342769889271</v>
+      </c>
+      <c r="H77">
+        <v>0.3609241636662062</v>
+      </c>
+      <c r="I77">
+        <v>0.2883251604545678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.1072103812805266</v>
+        <v>0.1492948244638531</v>
       </c>
       <c r="C78">
-        <v>0.02947785737026983</v>
+        <v>0.04269509015050107</v>
       </c>
       <c r="D78">
-        <v>-0.07362296259118964</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06997839716870284</v>
+      </c>
+      <c r="E78">
+        <v>-0.05140338061742613</v>
+      </c>
+      <c r="F78">
+        <v>-0.0548130472335964</v>
+      </c>
+      <c r="G78">
+        <v>-0.01705835855516563</v>
+      </c>
+      <c r="H78">
+        <v>0.1000911657859036</v>
+      </c>
+      <c r="I78">
+        <v>-0.08077672348404742</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1386592729259007</v>
+        <v>0.1424246693467181</v>
       </c>
       <c r="C79">
-        <v>0.05478909309042487</v>
+        <v>0.02411412857657922</v>
       </c>
       <c r="D79">
-        <v>-0.03238765760730728</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04957692333192067</v>
+      </c>
+      <c r="E79">
+        <v>0.01514832243931778</v>
+      </c>
+      <c r="F79">
+        <v>-0.01972399804290602</v>
+      </c>
+      <c r="G79">
+        <v>-0.03237002674620941</v>
+      </c>
+      <c r="H79">
+        <v>-0.1746264384045964</v>
+      </c>
+      <c r="I79">
+        <v>0.08366765463406146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.03321527305881033</v>
+        <v>0.03804344064590685</v>
       </c>
       <c r="C80">
-        <v>0.01713621904488245</v>
+        <v>0.003585360402444308</v>
       </c>
       <c r="D80">
-        <v>-0.02654729450170469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0173979021738711</v>
+      </c>
+      <c r="E80">
+        <v>0.04600829110118378</v>
+      </c>
+      <c r="F80">
+        <v>-0.001152181698361233</v>
+      </c>
+      <c r="G80">
+        <v>0.0175470214527521</v>
+      </c>
+      <c r="H80">
+        <v>-0.02786051567385523</v>
+      </c>
+      <c r="I80">
+        <v>-0.1067222700171481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1317714539066631</v>
+        <v>0.1299435387055501</v>
       </c>
       <c r="C81">
-        <v>0.06606755736357203</v>
+        <v>0.006533193114356761</v>
       </c>
       <c r="D81">
-        <v>-0.01536272414434755</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04811673284739931</v>
+      </c>
+      <c r="E81">
+        <v>0.009867164624752737</v>
+      </c>
+      <c r="F81">
+        <v>-0.0184978100665338</v>
+      </c>
+      <c r="G81">
+        <v>-0.008404082605739008</v>
+      </c>
+      <c r="H81">
+        <v>-0.1647002251579371</v>
+      </c>
+      <c r="I81">
+        <v>0.02080584130000353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.1313694368665324</v>
+        <v>0.129631203766653</v>
       </c>
       <c r="C82">
-        <v>0.06284607320841033</v>
+        <v>0.007537247570909085</v>
       </c>
       <c r="D82">
-        <v>-0.008405069741661834</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.05035693448170393</v>
+      </c>
+      <c r="E82">
+        <v>0.02283072881737107</v>
+      </c>
+      <c r="F82">
+        <v>-0.03287086720323677</v>
+      </c>
+      <c r="G82">
+        <v>-0.001689159894529933</v>
+      </c>
+      <c r="H82">
+        <v>-0.2333405935590879</v>
+      </c>
+      <c r="I82">
+        <v>0.1157030844984779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06413519387363302</v>
+        <v>0.07857201071947588</v>
       </c>
       <c r="C83">
-        <v>-0.04563044271971727</v>
+        <v>0.04314999177695978</v>
       </c>
       <c r="D83">
-        <v>-0.01286236737674988</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03510326900773221</v>
+      </c>
+      <c r="E83">
+        <v>-0.02529688245629254</v>
+      </c>
+      <c r="F83">
+        <v>-0.03659973430063343</v>
+      </c>
+      <c r="G83">
+        <v>0.07201690622913814</v>
+      </c>
+      <c r="H83">
+        <v>0.0001213447485376329</v>
+      </c>
+      <c r="I83">
+        <v>-0.1199244025943525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0326272963495057</v>
+        <v>0.03309584795916182</v>
       </c>
       <c r="C84">
-        <v>0.03539885094516977</v>
+        <v>0.02555191823844712</v>
       </c>
       <c r="D84">
-        <v>-0.03695843141332134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04212801209211083</v>
+      </c>
+      <c r="E84">
+        <v>-0.02239311409411956</v>
+      </c>
+      <c r="F84">
+        <v>0.04036576845144746</v>
+      </c>
+      <c r="G84">
+        <v>0.02741457785572559</v>
+      </c>
+      <c r="H84">
+        <v>-0.03832099397999922</v>
+      </c>
+      <c r="I84">
+        <v>-0.103530840586636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1145295832263564</v>
+        <v>0.1194492041532643</v>
       </c>
       <c r="C85">
-        <v>0.03478687935747542</v>
+        <v>0.02647982177692957</v>
       </c>
       <c r="D85">
-        <v>-0.04234730778225834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03625151846139227</v>
+      </c>
+      <c r="E85">
+        <v>-0.002861547091482438</v>
+      </c>
+      <c r="F85">
+        <v>-0.04537870174124008</v>
+      </c>
+      <c r="G85">
+        <v>-0.00966084173685185</v>
+      </c>
+      <c r="H85">
+        <v>-0.156816308854128</v>
+      </c>
+      <c r="I85">
+        <v>0.0778040070632046</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.05297371770015687</v>
+        <v>0.05033719426722972</v>
       </c>
       <c r="C86">
-        <v>0.02948558674589084</v>
+        <v>0.03326638621328008</v>
       </c>
       <c r="D86">
-        <v>-0.07360914964685919</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03616914090179269</v>
+      </c>
+      <c r="E86">
+        <v>-0.03084130527692117</v>
+      </c>
+      <c r="F86">
+        <v>-0.01615492786983825</v>
+      </c>
+      <c r="G86">
+        <v>0.02971386049595036</v>
+      </c>
+      <c r="H86">
+        <v>0.04848298623488468</v>
+      </c>
+      <c r="I86">
+        <v>0.02068827232545656</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.1217612549331696</v>
+        <v>0.1256946115240839</v>
       </c>
       <c r="C87">
-        <v>0.07130549449392672</v>
+        <v>0.04639605193874803</v>
       </c>
       <c r="D87">
-        <v>-0.08573593306611722</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07590067479679674</v>
+      </c>
+      <c r="E87">
+        <v>-0.02763325491807189</v>
+      </c>
+      <c r="F87">
+        <v>-0.03245327535570521</v>
+      </c>
+      <c r="G87">
+        <v>-0.1610545029123881</v>
+      </c>
+      <c r="H87">
+        <v>0.09690598616610728</v>
+      </c>
+      <c r="I87">
+        <v>-0.005460774350740509</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05747019545686144</v>
+        <v>0.06415163894669557</v>
       </c>
       <c r="C88">
-        <v>0.03284562020927998</v>
+        <v>0.02357460847541396</v>
       </c>
       <c r="D88">
-        <v>-0.02793461815399944</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04251995532041462</v>
+      </c>
+      <c r="E88">
+        <v>0.0005737685309311089</v>
+      </c>
+      <c r="F88">
+        <v>-0.02325510085552519</v>
+      </c>
+      <c r="G88">
+        <v>-0.009699540890851661</v>
+      </c>
+      <c r="H88">
+        <v>-0.03712356367020264</v>
+      </c>
+      <c r="I88">
+        <v>-0.02579304435179222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.07656302010197404</v>
+        <v>0.1154088718271336</v>
       </c>
       <c r="C89">
-        <v>0.07488106611151016</v>
+        <v>-0.3581145444674375</v>
       </c>
       <c r="D89">
-        <v>0.3163890788880126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.1001101906095283</v>
+      </c>
+      <c r="E89">
+        <v>-0.04613924892266461</v>
+      </c>
+      <c r="F89">
+        <v>-0.08230292402838758</v>
+      </c>
+      <c r="G89">
+        <v>0.01141295289030226</v>
+      </c>
+      <c r="H89">
+        <v>-0.02447206389472324</v>
+      </c>
+      <c r="I89">
+        <v>-0.08508020300477519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.06788931419240968</v>
+        <v>0.08999566253179032</v>
       </c>
       <c r="C90">
-        <v>0.04192575921013379</v>
+        <v>-0.2763259831919491</v>
       </c>
       <c r="D90">
-        <v>0.2785389986192146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.1030088196585895</v>
+      </c>
+      <c r="E90">
+        <v>-0.04803244301065088</v>
+      </c>
+      <c r="F90">
+        <v>-0.02812181599014899</v>
+      </c>
+      <c r="G90">
+        <v>-0.02067754944437849</v>
+      </c>
+      <c r="H90">
+        <v>0.01561592606783673</v>
+      </c>
+      <c r="I90">
+        <v>-0.07049320960179205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.09558297503339078</v>
+        <v>0.09251383120484735</v>
       </c>
       <c r="C91">
-        <v>0.05327129391707035</v>
+        <v>0.01438235587238668</v>
       </c>
       <c r="D91">
-        <v>-0.01440508660999867</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.04050577519928395</v>
+      </c>
+      <c r="E91">
+        <v>1.479440964133855e-05</v>
+      </c>
+      <c r="F91">
+        <v>-0.002288331180630969</v>
+      </c>
+      <c r="G91">
+        <v>0.01166291069370469</v>
+      </c>
+      <c r="H91">
+        <v>-0.08351627185014053</v>
+      </c>
+      <c r="I91">
+        <v>0.042061640195141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06461545576447274</v>
+        <v>0.08872594409641486</v>
       </c>
       <c r="C92">
-        <v>0.06040355938788605</v>
+        <v>-0.3180063848201278</v>
       </c>
       <c r="D92">
-        <v>0.3179650405526054</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.1034237897238023</v>
+      </c>
+      <c r="E92">
+        <v>-0.048388755171871</v>
+      </c>
+      <c r="F92">
+        <v>-0.04306597693354745</v>
+      </c>
+      <c r="G92">
+        <v>-0.004635460793348988</v>
+      </c>
+      <c r="H92">
+        <v>-0.03297267748061083</v>
+      </c>
+      <c r="I92">
+        <v>-0.02271882655928078</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.06060184022978957</v>
+        <v>0.08699572592126777</v>
       </c>
       <c r="C93">
-        <v>0.05157756378671424</v>
+        <v>-0.3004334392394526</v>
       </c>
       <c r="D93">
-        <v>0.3064441444800875</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0993986143241592</v>
+      </c>
+      <c r="E93">
+        <v>-0.01360396626501848</v>
+      </c>
+      <c r="F93">
+        <v>-0.02673363159969984</v>
+      </c>
+      <c r="G93">
+        <v>-0.01069832413908115</v>
+      </c>
+      <c r="H93">
+        <v>-0.002074890040277259</v>
+      </c>
+      <c r="I93">
+        <v>-0.01147146229181333</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.1322353143855876</v>
+        <v>0.1264956752804536</v>
       </c>
       <c r="C94">
-        <v>0.02259927368042902</v>
+        <v>0.04136756750794562</v>
       </c>
       <c r="D94">
-        <v>-0.04548272494378064</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01930122483075032</v>
+      </c>
+      <c r="E94">
+        <v>0.02306936331632679</v>
+      </c>
+      <c r="F94">
+        <v>-0.01276827479487347</v>
+      </c>
+      <c r="G94">
+        <v>0.04400020964948559</v>
+      </c>
+      <c r="H94">
+        <v>-0.1158538116810631</v>
+      </c>
+      <c r="I94">
+        <v>0.03875471518725435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1201439179421491</v>
+        <v>0.1305225201311669</v>
       </c>
       <c r="C95">
-        <v>0.02149621104239157</v>
+        <v>0.05840949260878631</v>
       </c>
       <c r="D95">
-        <v>-0.07638298883116314</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.03927647258710649</v>
+      </c>
+      <c r="E95">
+        <v>-0.007813012835258076</v>
+      </c>
+      <c r="F95">
+        <v>-0.04416188951931477</v>
+      </c>
+      <c r="G95">
+        <v>-0.03506225699924307</v>
+      </c>
+      <c r="H95">
+        <v>0.1193257097172335</v>
+      </c>
+      <c r="I95">
+        <v>-0.06728862118502921</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>-0.2311843229410599</v>
+        <v>0.1899144347467501</v>
       </c>
       <c r="C97">
-        <v>0.06912767960105703</v>
+        <v>-0.03503886240778967</v>
       </c>
       <c r="D97">
-        <v>0.0968312084964158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.03420058123742894</v>
+      </c>
+      <c r="E97">
+        <v>-0.02403053169968938</v>
+      </c>
+      <c r="F97">
+        <v>0.936665737903624</v>
+      </c>
+      <c r="G97">
+        <v>-0.06834762066670011</v>
+      </c>
+      <c r="H97">
+        <v>0.01117711261389512</v>
+      </c>
+      <c r="I97">
+        <v>-0.08351190089559546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2569091943799887</v>
+        <v>0.2845061130898024</v>
       </c>
       <c r="C98">
-        <v>0.07776210073204123</v>
+        <v>0.03030913533126338</v>
       </c>
       <c r="D98">
-        <v>-0.02894471768422902</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05918642582818911</v>
+      </c>
+      <c r="E98">
+        <v>0.2027425263192554</v>
+      </c>
+      <c r="F98">
+        <v>0.00579539495085525</v>
+      </c>
+      <c r="G98">
+        <v>0.3247313511208803</v>
+      </c>
+      <c r="H98">
+        <v>0.209137892353349</v>
+      </c>
+      <c r="I98">
+        <v>0.2077311170693134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>-0.3858862606969459</v>
+        <v>0.2502125892867627</v>
       </c>
       <c r="C99">
-        <v>-0.8969963234803616</v>
+        <v>0.3802541254383044</v>
       </c>
       <c r="D99">
-        <v>0.05790268786360692</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.8587170395255913</v>
+      </c>
+      <c r="E99">
+        <v>-0.09813047146136285</v>
+      </c>
+      <c r="F99">
+        <v>-0.06869786509876716</v>
+      </c>
+      <c r="G99">
+        <v>0.03145304799109223</v>
+      </c>
+      <c r="H99">
+        <v>-0.09112407184681086</v>
+      </c>
+      <c r="I99">
+        <v>0.03688159414390176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.04538026664391126</v>
+        <v>0.0507038097431008</v>
       </c>
       <c r="C101">
-        <v>0.04871798055733097</v>
+        <v>-0.00658886009263377</v>
       </c>
       <c r="D101">
-        <v>-0.007637772264466078</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04448826706206742</v>
+      </c>
+      <c r="E101">
+        <v>-0.04222343780821594</v>
+      </c>
+      <c r="F101">
+        <v>-0.02887908581506674</v>
+      </c>
+      <c r="G101">
+        <v>-0.01877891212408061</v>
+      </c>
+      <c r="H101">
+        <v>-0.08639358693440183</v>
+      </c>
+      <c r="I101">
+        <v>-0.04024699764752381</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
